--- a/biology/Botanique/Francis_Buchanan-Hamilton/Francis_Buchanan-Hamilton.xlsx
+++ b/biology/Botanique/Francis_Buchanan-Hamilton/Francis_Buchanan-Hamilton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Buchanan-Hamilton est un  botaniste et un  zoologiste  écossais né le 15 février 1762 à Callander dans le Perthshire et mort le 15 juin 1829 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études de médecine à l’université d’Édimbourg. Après avoir servi comme médecin de bord dans la marine marchande et avoir fait de nombreux voyages en Asie, il entre dans le Service médical du Bengale en 1794, fonction qu’il conserve jusqu’en 1815. Pendant cette période, il fait de nombreuses recherches en Inde et au Népal. De 1803 à 1804, il est le chirurgien du gouverneur général de l’Inde, Lord Wellesley (1760-1842) à Calcutta, où il organise également un zoo connu aujourd’hui sous le nom du zoo Alipore de Calcutta. En 1814, il succède à William Roxburgh (1759-1815) au poste de directeur du jardin botanique de Calcutta, mais il doit retourner en Grande-Bretagne en 1815 à cause de sa santé défaillante.
 Né Francis Buchanan, il ajoute le nom Hamilton après son patronyme lorsqu’il reçoit la succession de sa mère.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Francis Buchanan Hamilton, An Account of the Kingdom of Nepal and of the Territories Annexed to this Dominion by the House of Gorkha, Edinburgh, A. Constable, 1819 (lire en ligne), p. 232</t>
         </is>
